--- a/layout.xlsx
+++ b/layout.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330"/>
+    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Layout" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Row/Column</t>
   </si>
   <si>
-    <t>Loaded file</t>
-  </si>
-  <si>
     <t>IBthresholdlabel</t>
   </si>
   <si>
@@ -36,18 +33,9 @@
     <t>Irthresholdentry</t>
   </si>
   <si>
-    <t>Session to load</t>
-  </si>
-  <si>
-    <t>s-to-load</t>
-  </si>
-  <si>
     <t>checkbox</t>
   </si>
   <si>
-    <t>Load .txt files</t>
-  </si>
-  <si>
     <t>Output options</t>
   </si>
   <si>
@@ -82,6 +70,42 @@
   </si>
   <si>
     <t>About - ttk.Label</t>
+  </si>
+  <si>
+    <t>Load .txt file - ttk.Button</t>
+  </si>
+  <si>
+    <t>pdfButton</t>
+  </si>
+  <si>
+    <t>textsummaryButton</t>
+  </si>
+  <si>
+    <t>previousfile - ttk.Button</t>
+  </si>
+  <si>
+    <t>nextfile - ttk.Button</t>
+  </si>
+  <si>
+    <t>Loaded file - ttk.Label</t>
+  </si>
+  <si>
+    <t>Total licks</t>
+  </si>
+  <si>
+    <t>Intraburst frequency</t>
+  </si>
+  <si>
+    <t>Number of bursts</t>
+  </si>
+  <si>
+    <t>Mean licks per burst</t>
+  </si>
+  <si>
+    <t>Number of runs</t>
+  </si>
+  <si>
+    <t>Number of long licks</t>
   </si>
 </sst>
 </file>
@@ -113,7 +137,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,21 +171,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -518,20 +574,20 @@
       <c r="A2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
@@ -539,102 +595,104 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="B4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="7"/>
       <c r="D4" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="4"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="2"/>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
       <c r="D6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="4"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -644,8 +702,8 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>21</v>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
@@ -690,12 +748,13 @@
     </row>
     <row r="18" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="B7:H7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H6"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -704,12 +763,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/layout.xlsx
+++ b/layout.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Lick-Calc-GUI\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="110" windowWidth="19140" windowHeight="7330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="19140" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>Row/Column</t>
   </si>
@@ -106,12 +111,21 @@
   </si>
   <si>
     <t>Number of long licks</t>
+  </si>
+  <si>
+    <t>excelButton</t>
+  </si>
+  <si>
+    <t>filesuffix - ttk.label</t>
+  </si>
+  <si>
+    <t>defaultfolderButton</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -227,6 +241,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -275,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -310,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -521,18 +538,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.90625" customWidth="1"/>
-    <col min="2" max="8" width="16.08984375" customWidth="1"/>
-    <col min="9" max="12" width="10.453125" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="12" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -570,7 +587,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -590,7 +607,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -614,7 +631,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -632,7 +649,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -652,7 +669,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -666,7 +683,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" spans="1:12" ht="62.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="62.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -680,7 +697,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -688,17 +705,25 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="G8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -706,47 +731,47 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="1:1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B7:H7"/>
@@ -765,47 +790,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -815,8 +841,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/layout.xlsx
+++ b/layout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Row/Column</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>defaultfolderButton</t>
+  </si>
+  <si>
+    <t>Minimum burst size - ttk.Label</t>
+  </si>
+  <si>
+    <t>Plot burst probability - ttk.Label</t>
   </si>
 </sst>
 </file>
@@ -538,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,8 +651,12 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">
@@ -665,8 +675,12 @@
       <c r="E5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.25">

--- a/layout.xlsx
+++ b/layout.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
   <si>
     <t>Row/Column</t>
   </si>
@@ -47,9 +47,6 @@
     <t>ttk.Button - analyzeButton</t>
   </si>
   <si>
-    <t>loadmedButton - ttk.Button</t>
-  </si>
-  <si>
     <t>self.f2 - ttk.Frame</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>About - ttk.Label</t>
   </si>
   <si>
-    <t>Load .txt file - ttk.Button</t>
-  </si>
-  <si>
     <t>pdfButton</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>nextfile - ttk.Button</t>
   </si>
   <si>
-    <t>Loaded file - ttk.Label</t>
-  </si>
-  <si>
     <t>Total licks</t>
   </si>
   <si>
@@ -126,6 +117,18 @@
   </si>
   <si>
     <t>Plot burst probability - ttk.Label</t>
+  </si>
+  <si>
+    <t>loadfileBtn - ttk.Button</t>
+  </si>
+  <si>
+    <t>File Format - ttk.Label</t>
+  </si>
+  <si>
+    <t>Header Rows - ttk.Label</t>
+  </si>
+  <si>
+    <t>ttk.Dropdown</t>
   </si>
 </sst>
 </file>
@@ -221,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -238,6 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,7 +549,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -598,15 +602,15 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="5" t="s">
@@ -618,19 +622,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>5</v>
@@ -641,21 +645,23 @@
       <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4" s="5"/>
     </row>
@@ -663,12 +669,10 @@
       <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="B5" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7"/>
       <c r="D5" s="2" t="s">
         <v>1</v>
       </c>
@@ -676,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>5</v>
@@ -687,6 +691,12 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
@@ -702,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
@@ -719,22 +729,22 @@
         <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -793,7 +803,7 @@
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:H6"/>
-    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -815,32 +825,32 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
